--- a/Dataset/FeatureTabel_Ch.xlsx
+++ b/Dataset/FeatureTabel_Ch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22600" windowHeight="11840"/>
+    <workbookView windowWidth="29400" windowHeight="14020"/>
   </bookViews>
   <sheets>
     <sheet name="_19_______" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="175">
   <si>
     <t>变量名</t>
   </si>
@@ -35,10 +35,10 @@
     <t>中文名称</t>
   </si>
   <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>缺失值</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Missing Values</t>
   </si>
   <si>
     <t>变量含义</t>
@@ -47,12 +47,18 @@
     <t>建模建议</t>
   </si>
   <si>
+    <t>keep</t>
+  </si>
+  <si>
     <t>encounter_id</t>
   </si>
   <si>
     <t>就诊编号</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>每次就诊的唯一标识符</t>
   </si>
   <si>
@@ -77,6 +83,12 @@
     <t>种族</t>
   </si>
   <si>
+    <t>Categorical</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>患者的种族，例如白人、亚裔、非裔等</t>
   </si>
   <si>
@@ -161,6 +173,9 @@
     <t>住院天数</t>
   </si>
   <si>
+    <t>Integer</t>
+  </si>
+  <si>
     <t>住院的总天数</t>
   </si>
   <si>
@@ -179,6 +194,12 @@
     <t>缺失较多，可考虑合并top-K或缺失作为一类</t>
   </si>
   <si>
+    <t>half missing</t>
+  </si>
+  <si>
+    <t>有一半缺失</t>
+  </si>
+  <si>
     <t>medical_specialty</t>
   </si>
   <si>
@@ -191,6 +212,9 @@
     <t>类别型，种类多可只保留top-K并合并其他</t>
   </si>
   <si>
+    <t>haf missing</t>
+  </si>
+  <si>
     <t>num_lab_procedures</t>
   </si>
   <si>
@@ -233,6 +257,12 @@
     <t>数值型，表示慢病或健康状况</t>
   </si>
   <si>
+    <t>extreme centered</t>
+  </si>
+  <si>
+    <t>数据极度集中</t>
+  </si>
+  <si>
     <t>number_emergency</t>
   </si>
   <si>
@@ -269,24 +299,24 @@
     <t>类别型，建议分组为大类或使用embedding</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>diag_2</t>
   </si>
   <si>
     <t>次诊断代码</t>
   </si>
   <si>
-    <t>类别型</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
     <t>与本次住院相关的第二诊断（ICD9编码前3位）</t>
   </si>
   <si>
     <t>可与主诊断一起分组映射为疾病类别，或使用embedding</t>
   </si>
   <si>
+    <t>speical</t>
+  </si>
+  <si>
     <t>diag_3</t>
   </si>
   <si>
@@ -305,12 +335,6 @@
     <t>诊断数</t>
   </si>
   <si>
-    <t>数值型</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>本次住院记录输入系统的诊断总数</t>
   </si>
   <si>
@@ -339,6 +363,9 @@
   </si>
   <si>
     <t>One-Hot编码或映射为等级值（正常/偏高等）</t>
+  </si>
+  <si>
+    <t>uncertain, 83.3% miss</t>
   </si>
   <si>
     <t>metformin</t>
@@ -537,7 +564,14 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,12 +724,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1010,55 +1050,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1073,77 +1110,85 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1677,13 +1722,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="22.4326923076923" customWidth="1"/>
     <col min="3" max="3" width="42.1442307692308" customWidth="1"/>
@@ -1692,911 +1737,1227 @@
     <col min="6" max="6" width="59.1346153846154" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F8" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F9" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F10" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F12" t="s">
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="F11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E13" t="s">
+      <c r="B12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F13" t="s">
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="F12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B14" t="s">
+      <c r="G12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F14" t="s">
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="G13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B16" t="s">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E16" t="s">
+      <c r="B14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B17" t="s">
+      <c r="F14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F17" t="s">
+      <c r="B15" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="C15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B18" t="s">
+      <c r="F15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E18" t="s">
+      <c r="B16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F18" t="s">
+      <c r="C16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="F16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E19" t="s">
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F17" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+      <c r="G17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B20" t="s">
+      <c r="H17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F20" t="s">
+      <c r="B18" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+      <c r="C18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B21" t="s">
+      <c r="F18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C21" t="s">
+      <c r="G18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E21" t="s">
+      <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F19" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
+      <c r="G19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F20" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+      <c r="G20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B23" t="s">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G21" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F22" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="G22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F23" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
+      <c r="G23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F24" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="G24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F25" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="G25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B28" t="s">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
+      <c r="B26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
+      <c r="F26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B30" t="s">
+      <c r="G26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
+      <c r="B27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="F27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+      <c r="B28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" t="s">
-        <v>111</v>
-      </c>
-      <c r="F33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
+      <c r="B29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
+      <c r="B30" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C35" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
+      <c r="B31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+      <c r="B32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
+      <c r="B33" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+      <c r="B34" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" t="s">
-        <v>111</v>
-      </c>
-      <c r="F39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+      <c r="B35" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
+      <c r="B36" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" t="s">
-        <v>111</v>
-      </c>
-      <c r="F41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
+      <c r="B37" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" t="s">
-        <v>111</v>
-      </c>
-      <c r="F42" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
+      <c r="B38" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C43" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" t="s">
-        <v>111</v>
-      </c>
-      <c r="F43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
+      <c r="B39" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C44" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
+      <c r="B40" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C45" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45" t="s">
-        <v>111</v>
-      </c>
-      <c r="F45" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
+      <c r="B41" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" t="s">
-        <v>111</v>
-      </c>
-      <c r="F46" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
+      <c r="B42" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
+      <c r="B43" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
+      <c r="B44" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C49" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="B45" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F49" t="s">
+      <c r="C45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
+      <c r="B46" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C50" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" t="s">
-        <v>93</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="B47" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F50" t="s">
+      <c r="C47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
+      <c r="B48" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" t="s">
-        <v>93</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="B49" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F51" t="s">
+      <c r="C49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="F49" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Dataset/FeatureTabel_Ch.xlsx
+++ b/Dataset/FeatureTabel_Ch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="14020"/>
+    <workbookView windowWidth="22600" windowHeight="11840"/>
   </bookViews>
   <sheets>
     <sheet name="_19_______" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="177">
   <si>
     <t>变量名</t>
   </si>
@@ -56,6 +56,9 @@
     <t>就诊编号</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
@@ -552,6 +555,9 @@
   </si>
   <si>
     <t>作为分类目标变量（多分类或二分类）</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
@@ -564,14 +570,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1050,133 +1049,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1187,8 +1186,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1724,12 +1723,13 @@
   <sheetPr/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="60" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
+    <col min="1" max="1" width="20.9326923076923" customWidth="1"/>
     <col min="2" max="2" width="22.4326923076923" customWidth="1"/>
     <col min="3" max="3" width="42.1442307692308" customWidth="1"/>
     <col min="4" max="4" width="10.0961538461538" customWidth="1"/>
@@ -1768,1195 +1768,1201 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="H51" s="1"/>
     </row>
   </sheetData>

--- a/Dataset/FeatureTabel_Ch.xlsx
+++ b/Dataset/FeatureTabel_Ch.xlsx
@@ -1723,8 +1723,8 @@
   <sheetPr/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="60" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="7"/>
